--- a/test_data/ride_hailing/test_cartesian.xlsx
+++ b/test_data/ride_hailing/test_cartesian.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_cancellation_threshold</t>
   </si>
 </sst>
 </file>
@@ -4372,16 +4375,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4405,6 +4409,9 @@
       </c>
       <c r="G1" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/test_data/ride_hailing/test_cartesian.xlsx
+++ b/test_data/ride_hailing/test_cartesian.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">order_cancellation_threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomplete_ride_penalty</t>
   </si>
 </sst>
 </file>
@@ -4375,10 +4378,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4386,6 +4389,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,6 +4417,9 @@
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
@@ -4435,6 +4442,9 @@
       </c>
       <c r="G2" s="5" t="n">
         <v>42</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
